--- a/Wine_Quality/outputs/train_80_test_20/depth_7/wq_train_80_test_20_depth_7_report.xlsx
+++ b/Wine_Quality/outputs/train_80_test_20/depth_7/wq_train_80_test_20_depth_7_report.xlsx
@@ -458,58 +458,58 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>High quality</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1224489795918367</v>
+        <v>0.29296875</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1739130434782609</v>
+        <v>0.3926701570680629</v>
       </c>
       <c r="E2" t="n">
-        <v>49</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Low quality</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8023549201009251</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9587939698492463</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8736263736263736</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="E3" t="n">
-        <v>995</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Standard quality</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.8048151332760103</v>
       </c>
       <c r="C4" t="n">
-        <v>0.24609375</v>
+        <v>0.9407035175879397</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3631123919308357</v>
+        <v>0.8674698795180723</v>
       </c>
       <c r="E4" t="n">
-        <v>256</v>
+        <v>995</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7869230769230769</v>
+        <v>0.7784615384615384</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7869230769230769</v>
+        <v>0.7784615384615384</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7869230769230769</v>
+        <v>0.7784615384615384</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7869230769230769</v>
+        <v>0.7784615384615384</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5982208708028725</v>
+        <v>0.4969874398077321</v>
       </c>
       <c r="C6" t="n">
-        <v>0.442445566480361</v>
+        <v>0.4180268102844153</v>
       </c>
       <c r="D6" t="n">
-        <v>0.47021726967849</v>
+        <v>0.4311577899731562</v>
       </c>
       <c r="E6" t="n">
         <v>1300</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7617491651778383</v>
+        <v>0.7366358118808678</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7869230769230769</v>
+        <v>0.7784615384615384</v>
       </c>
       <c r="D7" t="n">
-        <v>0.746720579402285</v>
+        <v>0.7425303258947995</v>
       </c>
       <c r="E7" t="n">
         <v>1300</v>

--- a/Wine_Quality/outputs/train_80_test_20/depth_7/wq_train_80_test_20_depth_7_report.xlsx
+++ b/Wine_Quality/outputs/train_80_test_20/depth_7/wq_train_80_test_20_depth_7_report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5952380952380952</v>
+        <v>0.6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.29296875</v>
+        <v>0.29</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3926701570680629</v>
+        <v>0.39</v>
       </c>
       <c r="E2" t="n">
         <v>256</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.09</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02040816326530612</v>
+        <v>0.02</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.03</v>
       </c>
       <c r="E3" t="n">
         <v>49</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8048151332760103</v>
+        <v>0.8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9407035175879397</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8674698795180723</v>
+        <v>0.87</v>
       </c>
       <c r="E4" t="n">
         <v>995</v>
@@ -518,17 +518,13 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.7784615384615384</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7784615384615384</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0.7784615384615384</v>
+        <v>0.78</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7784615384615384</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +534,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4969874398077321</v>
+        <v>0.5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4180268102844153</v>
+        <v>0.42</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4311577899731562</v>
+        <v>0.43</v>
       </c>
       <c r="E6" t="n">
         <v>1300</v>
@@ -557,13 +553,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7366358118808678</v>
+        <v>0.74</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7784615384615384</v>
+        <v>0.78</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7425303258947995</v>
+        <v>0.74</v>
       </c>
       <c r="E7" t="n">
         <v>1300</v>
